--- a/src/Diccionario_de_datos-PF.xlsx
+++ b/src/Diccionario_de_datos-PF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a633e1179848eddb/Documentos/Henry/PROYECTO FINAL local/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1159" documentId="11_BF20BDBC2242ABD1991A1720F88AB87664F10EB8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CABD4A67-749A-4830-A471-D2749BE7B844}"/>
+  <xr:revisionPtr revIDLastSave="1165" documentId="11_BF20BDBC2242ABD1991A1720F88AB87664F10EB8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F26C0FB6-487D-4CC5-BB5B-24A9B92E610C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="492" windowWidth="11652" windowHeight="11568" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2196" yWindow="648" windowWidth="11652" windowHeight="11568" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dicc.Datos" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="229">
   <si>
     <t>Descripción</t>
   </si>
@@ -716,10 +716,10 @@
     <t>The pizza here is delicious! I will order again. You should too!</t>
   </si>
   <si>
-    <t>Cloud Storage</t>
-  </si>
-  <si>
     <t>Fecha de       Adquisición</t>
+  </si>
+  <si>
+    <t>Google API Place</t>
   </si>
 </sst>
 </file>
@@ -1674,7 +1674,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2087,15 +2087,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2105,8 +2099,44 @@
     <xf numFmtId="14" fontId="18" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2156,44 +2186,8 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2436,9 +2430,9 @@
   </sheetPr>
   <dimension ref="A1:DU120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2456,60 +2450,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:125" s="4" customFormat="1" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="170" t="s">
+      <c r="C1" s="151" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="171" t="s">
+      <c r="D1" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171" t="s">
+      <c r="E1" s="152"/>
+      <c r="F1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="171" t="s">
+      <c r="G1" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="172" t="s">
+      <c r="H1" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="173" t="s">
-        <v>228</v>
+      <c r="I1" s="154" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:125" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="162" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="162" t="s">
+      <c r="C2" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="163" t="s">
+      <c r="D2" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="164" t="s">
+      <c r="E2" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="165" t="s">
+      <c r="F2" s="146" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="166">
+      <c r="G2" s="147">
         <v>5701</v>
       </c>
-      <c r="H2" s="167" t="s">
-        <v>126</v>
-      </c>
-      <c r="I2" s="168">
+      <c r="H2" s="148" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="149">
         <v>45566</v>
       </c>
     </row>
     <row r="3" spans="1:125" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="153"/>
+      <c r="A3" s="163"/>
       <c r="B3" s="57"/>
       <c r="C3" s="76" t="s">
         <v>112</v>
@@ -2532,7 +2526,7 @@
       </c>
     </row>
     <row r="4" spans="1:125" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="153"/>
+      <c r="A4" s="163"/>
       <c r="B4" s="57"/>
       <c r="C4" s="80" t="s">
         <v>7</v>
@@ -2555,7 +2549,7 @@
       </c>
     </row>
     <row r="5" spans="1:125" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="154"/>
+      <c r="A5" s="164"/>
       <c r="B5" s="58"/>
       <c r="C5" s="82" t="s">
         <v>78</v>
@@ -2578,10 +2572,10 @@
       </c>
     </row>
     <row r="6" spans="1:125" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="158" t="s">
+      <c r="A6" s="168" t="s">
         <v>209</v>
       </c>
-      <c r="B6" s="155" t="s">
+      <c r="B6" s="165" t="s">
         <v>118</v>
       </c>
       <c r="C6" s="60" t="s">
@@ -2607,8 +2601,8 @@
       </c>
     </row>
     <row r="7" spans="1:125" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="159"/>
-      <c r="B7" s="156"/>
+      <c r="A7" s="169"/>
+      <c r="B7" s="166"/>
       <c r="C7" s="63" t="s">
         <v>6</v>
       </c>
@@ -2632,8 +2626,8 @@
       </c>
     </row>
     <row r="8" spans="1:125" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="159"/>
-      <c r="B8" s="156"/>
+      <c r="A8" s="169"/>
+      <c r="B8" s="166"/>
       <c r="C8" s="63" t="s">
         <v>112</v>
       </c>
@@ -2655,8 +2649,8 @@
       </c>
     </row>
     <row r="9" spans="1:125" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="159"/>
-      <c r="B9" s="156"/>
+      <c r="A9" s="169"/>
+      <c r="B9" s="166"/>
       <c r="C9" s="63" t="s">
         <v>113</v>
       </c>
@@ -2678,8 +2672,8 @@
       </c>
     </row>
     <row r="10" spans="1:125" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="159"/>
-      <c r="B10" s="157"/>
+      <c r="A10" s="169"/>
+      <c r="B10" s="167"/>
       <c r="C10" s="67" t="s">
         <v>114</v>
       </c>
@@ -2701,7 +2695,7 @@
       </c>
     </row>
     <row r="11" spans="1:125" s="46" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="159"/>
+      <c r="A11" s="169"/>
       <c r="B11" s="48" t="s">
         <v>86</v>
       </c>
@@ -2842,7 +2836,7 @@
       <c r="DU11" s="2"/>
     </row>
     <row r="12" spans="1:125" s="46" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="159"/>
+      <c r="A12" s="169"/>
       <c r="B12" s="49"/>
       <c r="C12" s="5" t="s">
         <v>8</v>
@@ -2983,7 +2977,7 @@
       <c r="DU12" s="2"/>
     </row>
     <row r="13" spans="1:125" s="46" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="159"/>
+      <c r="A13" s="169"/>
       <c r="B13" s="49"/>
       <c r="C13" s="5" t="s">
         <v>11</v>
@@ -3122,7 +3116,7 @@
       <c r="DU13" s="2"/>
     </row>
     <row r="14" spans="1:125" s="46" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="159"/>
+      <c r="A14" s="169"/>
       <c r="B14" s="49"/>
       <c r="C14" s="5" t="s">
         <v>14</v>
@@ -3261,7 +3255,7 @@
       <c r="DU14" s="2"/>
     </row>
     <row r="15" spans="1:125" s="46" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="159"/>
+      <c r="A15" s="169"/>
       <c r="B15" s="49"/>
       <c r="C15" s="5" t="s">
         <v>13</v>
@@ -3400,7 +3394,7 @@
       <c r="DU15" s="2"/>
     </row>
     <row r="16" spans="1:125" s="46" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="159"/>
+      <c r="A16" s="169"/>
       <c r="B16" s="49"/>
       <c r="C16" s="5" t="s">
         <v>12</v>
@@ -3539,7 +3533,7 @@
       <c r="DU16" s="2"/>
     </row>
     <row r="17" spans="1:125" s="46" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="159"/>
+      <c r="A17" s="169"/>
       <c r="B17" s="49"/>
       <c r="C17" s="5" t="s">
         <v>9</v>
@@ -3680,7 +3674,7 @@
       <c r="DU17" s="2"/>
     </row>
     <row r="18" spans="1:125" s="46" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="159"/>
+      <c r="A18" s="169"/>
       <c r="B18" s="51"/>
       <c r="C18" s="36" t="s">
         <v>78</v>
@@ -3821,7 +3815,7 @@
       <c r="DU18" s="2"/>
     </row>
     <row r="19" spans="1:125" s="46" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="159"/>
+      <c r="A19" s="169"/>
       <c r="B19" s="48" t="s">
         <v>55</v>
       </c>
@@ -3964,7 +3958,7 @@
       <c r="DU19" s="2"/>
     </row>
     <row r="20" spans="1:125" s="46" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="159"/>
+      <c r="A20" s="169"/>
       <c r="B20" s="49"/>
       <c r="C20" s="5" t="s">
         <v>8</v>
@@ -4105,7 +4099,7 @@
       <c r="DU20" s="2"/>
     </row>
     <row r="21" spans="1:125" s="46" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="159"/>
+      <c r="A21" s="169"/>
       <c r="B21" s="49"/>
       <c r="C21" s="5" t="s">
         <v>16</v>
@@ -4244,7 +4238,7 @@
       <c r="DU21" s="2"/>
     </row>
     <row r="22" spans="1:125" s="46" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="159"/>
+      <c r="A22" s="169"/>
       <c r="B22" s="49"/>
       <c r="C22" s="5" t="s">
         <v>17</v>
@@ -4383,7 +4377,7 @@
       <c r="DU22" s="2"/>
     </row>
     <row r="23" spans="1:125" s="46" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="159"/>
+      <c r="A23" s="169"/>
       <c r="B23" s="49"/>
       <c r="C23" s="5" t="s">
         <v>10</v>
@@ -4522,7 +4516,7 @@
       <c r="DU23" s="2"/>
     </row>
     <row r="24" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="159"/>
+      <c r="A24" s="169"/>
       <c r="B24" s="49"/>
       <c r="C24" s="5" t="s">
         <v>18</v>
@@ -4661,7 +4655,7 @@
       <c r="DU24" s="2"/>
     </row>
     <row r="25" spans="1:125" s="46" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="159"/>
+      <c r="A25" s="169"/>
       <c r="B25" s="49"/>
       <c r="C25" s="5" t="s">
         <v>19</v>
@@ -4800,7 +4794,7 @@
       <c r="DU25" s="2"/>
     </row>
     <row r="26" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="159"/>
+      <c r="A26" s="169"/>
       <c r="B26" s="49"/>
       <c r="C26" s="5" t="s">
         <v>20</v>
@@ -4939,7 +4933,7 @@
       <c r="DU26" s="2"/>
     </row>
     <row r="27" spans="1:125" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="159"/>
+      <c r="A27" s="169"/>
       <c r="B27" s="49"/>
       <c r="C27" s="5" t="s">
         <v>21</v>
@@ -5078,7 +5072,7 @@
       <c r="DU27" s="2"/>
     </row>
     <row r="28" spans="1:125" s="46" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="159"/>
+      <c r="A28" s="169"/>
       <c r="B28" s="51"/>
       <c r="C28" s="36" t="s">
         <v>22</v>
@@ -5217,7 +5211,7 @@
       <c r="DU28" s="2"/>
     </row>
     <row r="29" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="159"/>
+      <c r="A29" s="169"/>
       <c r="B29" s="48" t="s">
         <v>106</v>
       </c>
@@ -5360,7 +5354,7 @@
       <c r="DU29" s="2"/>
     </row>
     <row r="30" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="159"/>
+      <c r="A30" s="169"/>
       <c r="B30" s="49"/>
       <c r="C30" s="5" t="s">
         <v>104</v>
@@ -5499,7 +5493,7 @@
       <c r="DU30" s="2"/>
     </row>
     <row r="31" spans="1:125" s="46" customFormat="1" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="159"/>
+      <c r="A31" s="169"/>
       <c r="B31" s="51"/>
       <c r="C31" s="36" t="s">
         <v>105</v>
@@ -5638,7 +5632,7 @@
       <c r="DU31" s="2"/>
     </row>
     <row r="32" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="159"/>
+      <c r="A32" s="169"/>
       <c r="B32" s="48" t="s">
         <v>98</v>
       </c>
@@ -5781,7 +5775,7 @@
       <c r="DU32" s="2"/>
     </row>
     <row r="33" spans="1:125" s="46" customFormat="1" ht="67.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="159"/>
+      <c r="A33" s="169"/>
       <c r="B33" s="51"/>
       <c r="C33" s="36" t="s">
         <v>100</v>
@@ -5920,7 +5914,7 @@
       <c r="DU33" s="2"/>
     </row>
     <row r="34" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="159"/>
+      <c r="A34" s="169"/>
       <c r="B34" s="48" t="s">
         <v>76</v>
       </c>
@@ -6063,7 +6057,7 @@
       <c r="DU34" s="2"/>
     </row>
     <row r="35" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="159"/>
+      <c r="A35" s="169"/>
       <c r="B35" s="49"/>
       <c r="C35" s="5" t="s">
         <v>9</v>
@@ -6202,7 +6196,7 @@
       <c r="DU35" s="2"/>
     </row>
     <row r="36" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="159"/>
+      <c r="A36" s="169"/>
       <c r="B36" s="49"/>
       <c r="C36" s="5" t="s">
         <v>16</v>
@@ -6341,7 +6335,7 @@
       <c r="DU36" s="2"/>
     </row>
     <row r="37" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="159"/>
+      <c r="A37" s="169"/>
       <c r="B37" s="49"/>
       <c r="C37" s="5" t="s">
         <v>23</v>
@@ -6480,7 +6474,7 @@
       <c r="DU37" s="2"/>
     </row>
     <row r="38" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="159"/>
+      <c r="A38" s="169"/>
       <c r="B38" s="49"/>
       <c r="C38" s="5" t="s">
         <v>24</v>
@@ -6619,7 +6613,7 @@
       <c r="DU38" s="2"/>
     </row>
     <row r="39" spans="1:125" s="46" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="159"/>
+      <c r="A39" s="169"/>
       <c r="B39" s="49"/>
       <c r="C39" s="5" t="s">
         <v>77</v>
@@ -6758,7 +6752,7 @@
       <c r="DU39" s="2"/>
     </row>
     <row r="40" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="159"/>
+      <c r="A40" s="169"/>
       <c r="B40" s="49"/>
       <c r="C40" s="5" t="s">
         <v>25</v>
@@ -6897,7 +6891,7 @@
       <c r="DU40" s="2"/>
     </row>
     <row r="41" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="159"/>
+      <c r="A41" s="169"/>
       <c r="B41" s="51"/>
       <c r="C41" s="36" t="s">
         <v>26</v>
@@ -7036,7 +7030,7 @@
       <c r="DU41" s="2"/>
     </row>
     <row r="42" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="159"/>
+      <c r="A42" s="169"/>
       <c r="B42" s="48" t="s">
         <v>99</v>
       </c>
@@ -7179,7 +7173,7 @@
       <c r="DU42" s="2"/>
     </row>
     <row r="43" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="159"/>
+      <c r="A43" s="169"/>
       <c r="B43" s="49"/>
       <c r="C43" s="22" t="s">
         <v>27</v>
@@ -7188,7 +7182,7 @@
         <v>37</v>
       </c>
       <c r="E43" s="23"/>
-      <c r="F43" s="145" t="s">
+      <c r="F43" s="155" t="s">
         <v>94</v>
       </c>
       <c r="G43" s="24" t="s">
@@ -7318,7 +7312,7 @@
       <c r="DU43" s="2"/>
     </row>
     <row r="44" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="159"/>
+      <c r="A44" s="169"/>
       <c r="B44" s="49"/>
       <c r="C44" s="22" t="s">
         <v>28</v>
@@ -7327,7 +7321,7 @@
         <v>37</v>
       </c>
       <c r="E44" s="25"/>
-      <c r="F44" s="145"/>
+      <c r="F44" s="155"/>
       <c r="G44" s="24" t="s">
         <v>96</v>
       </c>
@@ -7455,7 +7449,7 @@
       <c r="DU44" s="2"/>
     </row>
     <row r="45" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="159"/>
+      <c r="A45" s="169"/>
       <c r="B45" s="49"/>
       <c r="C45" s="22" t="s">
         <v>29</v>
@@ -7464,7 +7458,7 @@
         <v>37</v>
       </c>
       <c r="E45" s="25"/>
-      <c r="F45" s="145"/>
+      <c r="F45" s="155"/>
       <c r="G45" s="24" t="s">
         <v>96</v>
       </c>
@@ -7592,7 +7586,7 @@
       <c r="DU45" s="2"/>
     </row>
     <row r="46" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="159"/>
+      <c r="A46" s="169"/>
       <c r="B46" s="49"/>
       <c r="C46" s="22" t="s">
         <v>30</v>
@@ -7601,7 +7595,7 @@
         <v>37</v>
       </c>
       <c r="E46" s="25"/>
-      <c r="F46" s="145"/>
+      <c r="F46" s="155"/>
       <c r="G46" s="24" t="s">
         <v>96</v>
       </c>
@@ -7729,7 +7723,7 @@
       <c r="DU46" s="2"/>
     </row>
     <row r="47" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="159"/>
+      <c r="A47" s="169"/>
       <c r="B47" s="49"/>
       <c r="C47" s="22" t="s">
         <v>31</v>
@@ -7738,7 +7732,7 @@
         <v>37</v>
       </c>
       <c r="E47" s="25"/>
-      <c r="F47" s="145"/>
+      <c r="F47" s="155"/>
       <c r="G47" s="24" t="s">
         <v>96</v>
       </c>
@@ -7866,7 +7860,7 @@
       <c r="DU47" s="2"/>
     </row>
     <row r="48" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="159"/>
+      <c r="A48" s="169"/>
       <c r="B48" s="49"/>
       <c r="C48" s="22" t="s">
         <v>32</v>
@@ -7875,7 +7869,7 @@
         <v>37</v>
       </c>
       <c r="E48" s="25"/>
-      <c r="F48" s="145"/>
+      <c r="F48" s="155"/>
       <c r="G48" s="24" t="s">
         <v>96</v>
       </c>
@@ -8003,7 +7997,7 @@
       <c r="DU48" s="2"/>
     </row>
     <row r="49" spans="1:125" s="46" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="160"/>
+      <c r="A49" s="170"/>
       <c r="B49" s="49"/>
       <c r="C49" s="52" t="s">
         <v>33</v>
@@ -8012,7 +8006,7 @@
         <v>37</v>
       </c>
       <c r="E49" s="25"/>
-      <c r="F49" s="146"/>
+      <c r="F49" s="156"/>
       <c r="G49" s="53" t="s">
         <v>96</v>
       </c>
@@ -8139,7 +8133,7 @@
       <c r="DT49" s="2"/>
       <c r="DU49" s="2"/>
     </row>
-    <row r="50" spans="1:125" s="59" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:125" s="59" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="121"/>
       <c r="B50" s="128" t="s">
         <v>214</v>
@@ -8159,7 +8153,9 @@
       <c r="G50" s="137" t="s">
         <v>223</v>
       </c>
-      <c r="H50" s="138"/>
+      <c r="H50" s="171" t="s">
+        <v>228</v>
+      </c>
       <c r="I50" s="122">
         <v>45597</v>
       </c>
@@ -8280,7 +8276,7 @@
       <c r="DT50" s="4"/>
       <c r="DU50" s="4"/>
     </row>
-    <row r="51" spans="1:125" s="59" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:125" s="59" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="121"/>
       <c r="B51" s="123"/>
       <c r="C51" s="118" t="s">
@@ -8292,14 +8288,18 @@
       <c r="E51" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="F51" s="139" t="s">
+      <c r="F51" s="138" t="s">
         <v>40</v>
       </c>
       <c r="G51" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="H51" s="140"/>
-      <c r="I51" s="124"/>
+      <c r="H51" s="171" t="s">
+        <v>228</v>
+      </c>
+      <c r="I51" s="122">
+        <v>45597</v>
+      </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
@@ -8417,7 +8417,7 @@
       <c r="DT51" s="4"/>
       <c r="DU51" s="4"/>
     </row>
-    <row r="52" spans="1:125" s="59" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:125" s="59" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="121"/>
       <c r="B52" s="123"/>
       <c r="C52" s="118" t="s">
@@ -8433,8 +8433,8 @@
       <c r="G52" s="119" t="s">
         <v>224</v>
       </c>
-      <c r="H52" s="140" t="s">
-        <v>227</v>
+      <c r="H52" s="171" t="s">
+        <v>228</v>
       </c>
       <c r="I52" s="124">
         <v>45597</v>
@@ -8556,7 +8556,7 @@
       <c r="DT52" s="4"/>
       <c r="DU52" s="4"/>
     </row>
-    <row r="53" spans="1:125" s="59" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:125" s="59" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="121"/>
       <c r="B53" s="123"/>
       <c r="C53" s="118" t="s">
@@ -8572,8 +8572,8 @@
       <c r="G53" s="119" t="s">
         <v>225</v>
       </c>
-      <c r="H53" s="140" t="s">
-        <v>227</v>
+      <c r="H53" s="171" t="s">
+        <v>228</v>
       </c>
       <c r="I53" s="125">
         <v>45597</v>
@@ -8695,7 +8695,7 @@
       <c r="DT53" s="4"/>
       <c r="DU53" s="4"/>
     </row>
-    <row r="54" spans="1:125" s="59" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:125" s="59" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="121"/>
       <c r="B54" s="123"/>
       <c r="C54" s="118" t="s">
@@ -8711,8 +8711,8 @@
       <c r="G54" s="119" t="s">
         <v>226</v>
       </c>
-      <c r="H54" s="140" t="s">
-        <v>227</v>
+      <c r="H54" s="171" t="s">
+        <v>228</v>
       </c>
       <c r="I54" s="126">
         <v>45597</v>
@@ -8843,15 +8843,15 @@
       <c r="D55" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="E55" s="141"/>
-      <c r="F55" s="142" t="s">
+      <c r="E55" s="139"/>
+      <c r="F55" s="140" t="s">
         <v>222</v>
       </c>
-      <c r="G55" s="143">
+      <c r="G55" s="141">
         <v>45598</v>
       </c>
-      <c r="H55" s="144" t="s">
-        <v>227</v>
+      <c r="H55" s="171" t="s">
+        <v>228</v>
       </c>
       <c r="I55" s="127">
         <v>45597</v>
@@ -8974,7 +8974,7 @@
       <c r="DU55" s="4"/>
     </row>
     <row r="56" spans="1:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="149" t="s">
+      <c r="A56" s="159" t="s">
         <v>208</v>
       </c>
       <c r="B56" s="54" t="s">
@@ -9003,7 +9003,7 @@
       </c>
     </row>
     <row r="57" spans="1:125" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="150"/>
+      <c r="A57" s="160"/>
       <c r="B57" s="55"/>
       <c r="C57" s="89" t="s">
         <v>147</v>
@@ -9026,7 +9026,7 @@
       </c>
     </row>
     <row r="58" spans="1:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="150"/>
+      <c r="A58" s="160"/>
       <c r="B58" s="54" t="s">
         <v>146</v>
       </c>
@@ -9053,7 +9053,7 @@
       </c>
     </row>
     <row r="59" spans="1:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="150"/>
+      <c r="A59" s="160"/>
       <c r="B59" s="56"/>
       <c r="C59" s="91" t="s">
         <v>10</v>
@@ -9076,7 +9076,7 @@
       </c>
     </row>
     <row r="60" spans="1:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="150"/>
+      <c r="A60" s="160"/>
       <c r="B60" s="56"/>
       <c r="C60" s="91" t="s">
         <v>129</v>
@@ -9099,7 +9099,7 @@
       </c>
     </row>
     <row r="61" spans="1:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="150"/>
+      <c r="A61" s="160"/>
       <c r="B61" s="56"/>
       <c r="C61" s="91" t="s">
         <v>130</v>
@@ -9122,7 +9122,7 @@
       </c>
     </row>
     <row r="62" spans="1:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="150"/>
+      <c r="A62" s="160"/>
       <c r="B62" s="56"/>
       <c r="C62" s="91" t="s">
         <v>131</v>
@@ -9145,7 +9145,7 @@
       </c>
     </row>
     <row r="63" spans="1:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="150"/>
+      <c r="A63" s="160"/>
       <c r="B63" s="56"/>
       <c r="C63" s="91" t="s">
         <v>132</v>
@@ -9168,7 +9168,7 @@
       </c>
     </row>
     <row r="64" spans="1:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="150"/>
+      <c r="A64" s="160"/>
       <c r="B64" s="56"/>
       <c r="C64" s="91" t="s">
         <v>133</v>
@@ -9191,7 +9191,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="150"/>
+      <c r="A65" s="160"/>
       <c r="B65" s="56"/>
       <c r="C65" s="91" t="s">
         <v>134</v>
@@ -9214,7 +9214,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="150"/>
+      <c r="A66" s="160"/>
       <c r="B66" s="56"/>
       <c r="C66" s="91" t="s">
         <v>135</v>
@@ -9237,7 +9237,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="150"/>
+      <c r="A67" s="160"/>
       <c r="B67" s="56"/>
       <c r="C67" s="91" t="s">
         <v>136</v>
@@ -9260,7 +9260,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="150"/>
+      <c r="A68" s="160"/>
       <c r="B68" s="56"/>
       <c r="C68" s="91" t="s">
         <v>137</v>
@@ -9281,7 +9281,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="150"/>
+      <c r="A69" s="160"/>
       <c r="B69" s="56"/>
       <c r="C69" s="91" t="s">
         <v>138</v>
@@ -9290,7 +9290,7 @@
         <v>37</v>
       </c>
       <c r="E69" s="92"/>
-      <c r="F69" s="147" t="s">
+      <c r="F69" s="157" t="s">
         <v>180</v>
       </c>
       <c r="G69" s="106" t="s">
@@ -9304,7 +9304,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="150"/>
+      <c r="A70" s="160"/>
       <c r="B70" s="56"/>
       <c r="C70" s="91" t="s">
         <v>139</v>
@@ -9313,7 +9313,7 @@
         <v>37</v>
       </c>
       <c r="E70" s="92"/>
-      <c r="F70" s="147"/>
+      <c r="F70" s="157"/>
       <c r="G70" s="106" t="s">
         <v>194</v>
       </c>
@@ -9325,7 +9325,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="150"/>
+      <c r="A71" s="160"/>
       <c r="B71" s="56"/>
       <c r="C71" s="91" t="s">
         <v>140</v>
@@ -9334,7 +9334,7 @@
         <v>37</v>
       </c>
       <c r="E71" s="92"/>
-      <c r="F71" s="147"/>
+      <c r="F71" s="157"/>
       <c r="G71" s="106" t="s">
         <v>194</v>
       </c>
@@ -9346,7 +9346,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="150"/>
+      <c r="A72" s="160"/>
       <c r="B72" s="56"/>
       <c r="C72" s="91" t="s">
         <v>141</v>
@@ -9355,7 +9355,7 @@
         <v>37</v>
       </c>
       <c r="E72" s="92"/>
-      <c r="F72" s="147"/>
+      <c r="F72" s="157"/>
       <c r="G72" s="106" t="s">
         <v>194</v>
       </c>
@@ -9367,7 +9367,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="150"/>
+      <c r="A73" s="160"/>
       <c r="B73" s="56"/>
       <c r="C73" s="91" t="s">
         <v>142</v>
@@ -9376,7 +9376,7 @@
         <v>37</v>
       </c>
       <c r="E73" s="92"/>
-      <c r="F73" s="147"/>
+      <c r="F73" s="157"/>
       <c r="G73" s="106" t="s">
         <v>194</v>
       </c>
@@ -9388,7 +9388,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="150"/>
+      <c r="A74" s="160"/>
       <c r="B74" s="56"/>
       <c r="C74" s="91" t="s">
         <v>143</v>
@@ -9397,7 +9397,7 @@
         <v>37</v>
       </c>
       <c r="E74" s="92"/>
-      <c r="F74" s="147"/>
+      <c r="F74" s="157"/>
       <c r="G74" s="106" t="s">
         <v>194</v>
       </c>
@@ -9409,7 +9409,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="150"/>
+      <c r="A75" s="160"/>
       <c r="B75" s="55"/>
       <c r="C75" s="89" t="s">
         <v>144</v>
@@ -9418,7 +9418,7 @@
         <v>37</v>
       </c>
       <c r="E75" s="90"/>
-      <c r="F75" s="148"/>
+      <c r="F75" s="158"/>
       <c r="G75" s="109" t="s">
         <v>195</v>
       </c>
@@ -9430,7 +9430,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="150"/>
+      <c r="A76" s="160"/>
       <c r="B76" s="54" t="s">
         <v>149</v>
       </c>
@@ -9457,7 +9457,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="150"/>
+      <c r="A77" s="160"/>
       <c r="B77" s="55"/>
       <c r="C77" s="89" t="s">
         <v>150</v>
@@ -9478,7 +9478,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="150"/>
+      <c r="A78" s="160"/>
       <c r="B78" s="54" t="s">
         <v>151</v>
       </c>
@@ -9505,7 +9505,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="150"/>
+      <c r="A79" s="160"/>
       <c r="B79" s="56"/>
       <c r="C79" s="93" t="s">
         <v>152</v>
@@ -9526,7 +9526,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="150"/>
+      <c r="A80" s="160"/>
       <c r="B80" s="56"/>
       <c r="C80" s="93" t="s">
         <v>112</v>
@@ -9547,7 +9547,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="150"/>
+      <c r="A81" s="160"/>
       <c r="B81" s="56"/>
       <c r="C81" s="93" t="s">
         <v>113</v>
@@ -9568,7 +9568,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="150"/>
+      <c r="A82" s="160"/>
       <c r="B82" s="55"/>
       <c r="C82" s="95" t="s">
         <v>114</v>
@@ -9589,7 +9589,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="150"/>
+      <c r="A83" s="160"/>
       <c r="B83" s="54" t="s">
         <v>153</v>
       </c>
@@ -9614,7 +9614,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="150"/>
+      <c r="A84" s="160"/>
       <c r="B84" s="56"/>
       <c r="C84" s="93" t="s">
         <v>17</v>
@@ -9637,7 +9637,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="150"/>
+      <c r="A85" s="160"/>
       <c r="B85" s="56"/>
       <c r="C85" s="93" t="s">
         <v>128</v>
@@ -9660,7 +9660,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="150"/>
+      <c r="A86" s="160"/>
       <c r="B86" s="56"/>
       <c r="C86" s="93" t="s">
         <v>135</v>
@@ -9681,7 +9681,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="150"/>
+      <c r="A87" s="160"/>
       <c r="B87" s="56"/>
       <c r="C87" s="93" t="s">
         <v>150</v>
@@ -9702,7 +9702,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="150"/>
+      <c r="A88" s="160"/>
       <c r="B88" s="56"/>
       <c r="C88" s="93" t="s">
         <v>20</v>
@@ -9723,7 +9723,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="150"/>
+      <c r="A89" s="160"/>
       <c r="B89" s="56"/>
       <c r="C89" s="93" t="s">
         <v>154</v>
@@ -9742,7 +9742,7 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="150"/>
+      <c r="A90" s="160"/>
       <c r="B90" s="56"/>
       <c r="C90" s="93" t="s">
         <v>155</v>
@@ -9761,7 +9761,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="150"/>
+      <c r="A91" s="160"/>
       <c r="B91" s="55"/>
       <c r="C91" s="95" t="s">
         <v>156</v>
@@ -9780,7 +9780,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="150"/>
+      <c r="A92" s="160"/>
       <c r="B92" s="54" t="s">
         <v>157</v>
       </c>
@@ -9805,7 +9805,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="150"/>
+      <c r="A93" s="160"/>
       <c r="B93" s="56"/>
       <c r="C93" s="93" t="s">
         <v>17</v>
@@ -9826,7 +9826,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="150"/>
+      <c r="A94" s="160"/>
       <c r="B94" s="56"/>
       <c r="C94" s="93" t="s">
         <v>150</v>
@@ -9847,7 +9847,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="150"/>
+      <c r="A95" s="160"/>
       <c r="B95" s="56"/>
       <c r="C95" s="93" t="s">
         <v>20</v>
@@ -9868,7 +9868,7 @@
       </c>
     </row>
     <row r="96" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="150"/>
+      <c r="A96" s="160"/>
       <c r="B96" s="55"/>
       <c r="C96" s="95" t="s">
         <v>158</v>
@@ -9887,7 +9887,7 @@
       </c>
     </row>
     <row r="97" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="150"/>
+      <c r="A97" s="160"/>
       <c r="B97" s="54" t="s">
         <v>159</v>
       </c>
@@ -9912,7 +9912,7 @@
       </c>
     </row>
     <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="150"/>
+      <c r="A98" s="160"/>
       <c r="B98" s="56"/>
       <c r="C98" s="93" t="s">
         <v>10</v>
@@ -9933,7 +9933,7 @@
       </c>
     </row>
     <row r="99" spans="1:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="150"/>
+      <c r="A99" s="160"/>
       <c r="B99" s="56"/>
       <c r="C99" s="93" t="s">
         <v>136</v>
@@ -9954,7 +9954,7 @@
       </c>
     </row>
     <row r="100" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="150"/>
+      <c r="A100" s="160"/>
       <c r="B100" s="56"/>
       <c r="C100" s="93" t="s">
         <v>160</v>
@@ -9975,7 +9975,7 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="150"/>
+      <c r="A101" s="160"/>
       <c r="B101" s="56"/>
       <c r="C101" s="93" t="s">
         <v>154</v>
@@ -9994,7 +9994,7 @@
       </c>
     </row>
     <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="150"/>
+      <c r="A102" s="160"/>
       <c r="B102" s="56"/>
       <c r="C102" s="93" t="s">
         <v>155</v>
@@ -10013,7 +10013,7 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="150"/>
+      <c r="A103" s="160"/>
       <c r="B103" s="56"/>
       <c r="C103" s="93" t="s">
         <v>156</v>
@@ -10032,7 +10032,7 @@
       </c>
     </row>
     <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="150"/>
+      <c r="A104" s="160"/>
       <c r="B104" s="56"/>
       <c r="C104" s="93" t="s">
         <v>161</v>
@@ -10051,7 +10051,7 @@
       </c>
     </row>
     <row r="105" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="150"/>
+      <c r="A105" s="160"/>
       <c r="B105" s="56"/>
       <c r="C105" s="93" t="s">
         <v>162</v>
@@ -10072,7 +10072,7 @@
       </c>
     </row>
     <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="150"/>
+      <c r="A106" s="160"/>
       <c r="B106" s="56"/>
       <c r="C106" s="93" t="s">
         <v>163</v>
@@ -10091,7 +10091,7 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="150"/>
+      <c r="A107" s="160"/>
       <c r="B107" s="56"/>
       <c r="C107" s="93" t="s">
         <v>164</v>
@@ -10110,7 +10110,7 @@
       </c>
     </row>
     <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="150"/>
+      <c r="A108" s="160"/>
       <c r="B108" s="56"/>
       <c r="C108" s="93" t="s">
         <v>165</v>
@@ -10129,7 +10129,7 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="150"/>
+      <c r="A109" s="160"/>
       <c r="B109" s="56"/>
       <c r="C109" s="93" t="s">
         <v>166</v>
@@ -10148,7 +10148,7 @@
       </c>
     </row>
     <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="150"/>
+      <c r="A110" s="160"/>
       <c r="B110" s="56"/>
       <c r="C110" s="93" t="s">
         <v>167</v>
@@ -10167,7 +10167,7 @@
       </c>
     </row>
     <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="150"/>
+      <c r="A111" s="160"/>
       <c r="B111" s="56"/>
       <c r="C111" s="93" t="s">
         <v>168</v>
@@ -10186,7 +10186,7 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="150"/>
+      <c r="A112" s="160"/>
       <c r="B112" s="56"/>
       <c r="C112" s="93" t="s">
         <v>169</v>
@@ -10205,7 +10205,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="150"/>
+      <c r="A113" s="160"/>
       <c r="B113" s="56"/>
       <c r="C113" s="93" t="s">
         <v>170</v>
@@ -10224,7 +10224,7 @@
       </c>
     </row>
     <row r="114" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="150"/>
+      <c r="A114" s="160"/>
       <c r="B114" s="56"/>
       <c r="C114" s="93" t="s">
         <v>171</v>
@@ -10243,7 +10243,7 @@
       </c>
     </row>
     <row r="115" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="150"/>
+      <c r="A115" s="160"/>
       <c r="B115" s="56"/>
       <c r="C115" s="93" t="s">
         <v>172</v>
@@ -10262,7 +10262,7 @@
       </c>
     </row>
     <row r="116" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="150"/>
+      <c r="A116" s="160"/>
       <c r="B116" s="55"/>
       <c r="C116" s="95" t="s">
         <v>173</v>
@@ -10281,7 +10281,7 @@
       </c>
     </row>
     <row r="117" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="150"/>
+      <c r="A117" s="160"/>
       <c r="B117" s="54" t="s">
         <v>174</v>
       </c>
@@ -10306,7 +10306,7 @@
       </c>
     </row>
     <row r="118" spans="1:9" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="150"/>
+      <c r="A118" s="160"/>
       <c r="B118" s="55"/>
       <c r="C118" s="95" t="s">
         <v>175</v>
@@ -10327,7 +10327,7 @@
       </c>
     </row>
     <row r="119" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="150"/>
+      <c r="A119" s="160"/>
       <c r="B119" s="54" t="s">
         <v>176</v>
       </c>
@@ -10352,7 +10352,7 @@
       </c>
     </row>
     <row r="120" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="151"/>
+      <c r="A120" s="161"/>
       <c r="B120" s="55"/>
       <c r="C120" s="95" t="s">
         <v>177</v>
